--- a/a2_part1.xlsx
+++ b/a2_part1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_martin_tue_nl/Documents/Transportation Teaching/1CM110/2023/Block 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fede/Downloads/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1111" documentId="14_{C2953BAF-B8BA-4F8F-97D6-9F6627AE2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D61CD7D-9300-468A-8A5E-C43B21EC077A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBCEAA8-1774-1140-B265-E1AE9EA9BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{37CB59AD-8A25-469A-8BA2-B47FC8C89D28}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{37CB59AD-8A25-469A-8BA2-B47FC8C89D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>Stops</t>
   </si>
@@ -132,6 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,6 +220,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,10 +237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,16 +539,16 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -572,7 +572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -588,7 +588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -596,7 +596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -604,7 +604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -620,7 +620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -636,7 +636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -644,51 +644,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
@@ -706,12 +706,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>800</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="J3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3100</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3500</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3900</v>
       </c>
@@ -838,16 +838,16 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -855,7 +855,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -865,7 +865,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -874,7 +874,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -884,176 +884,176 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" s="2"/>
     </row>
   </sheetData>
@@ -1064,18 +1064,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB728077-7390-4842-ABA8-DFAEC71AB0C6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1140,8 +1140,9 @@
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1193,6 +1194,116 @@
         <v>16</v>
       </c>
       <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
         <v>15</v>
       </c>
     </row>
